--- a/log/RunRealTimeStock/2024-08-31DailyResultWeb.xlsx
+++ b/log/RunRealTimeStock/2024-08-31DailyResultWeb.xlsx
@@ -456,18 +456,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1101</v>
       </c>
       <c r="B2" t="n">
         <v>32.95</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
